--- a/RecoveryStocksArbitrage/Yash_Recovery_Stocks.xlsx
+++ b/RecoveryStocksArbitrage/Yash_Recovery_Stocks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sandeep/Workspace/APEX/RecoveryStocksArbitrage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F72FC1F-942D-3A43-A6B0-064BBD57892C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50977A2F-B520-0548-AB0F-4E2A5F093F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="151">
   <si>
     <t>Ticker</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>P/E</t>
-  </si>
-  <si>
-    <t>None (72 securities)</t>
   </si>
   <si>
     <t>BASE US Equity</t>
@@ -980,7 +977,7 @@
   <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -1025,1769 +1022,1767 @@
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>-30.703205227180398</v>
+      </c>
+      <c r="D2" s="5">
+        <v>20.157485961914062</v>
+      </c>
+      <c r="E2" s="5">
+        <v>915051456</v>
+      </c>
+      <c r="F2" s="5">
+        <v>915051456</v>
+      </c>
+      <c r="G2" s="5">
+        <v>20.989999771118164</v>
+      </c>
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="5">
-        <v>-30.703205227180398</v>
+        <v>-30.922198929633925</v>
       </c>
       <c r="D3" s="5">
-        <v>20.157485961914062</v>
+        <v>45.817737579345703</v>
       </c>
       <c r="E3" s="5">
-        <v>915051456</v>
+        <v>3414239232</v>
       </c>
       <c r="F3" s="5">
-        <v>915051456</v>
+        <v>3414239232</v>
       </c>
       <c r="G3" s="5">
-        <v>20.989999771118164</v>
+        <v>63.220001220703125</v>
       </c>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="5">
-        <v>-30.922198929633925</v>
+        <v>-31.526389379708441</v>
       </c>
       <c r="D4" s="5">
-        <v>45.817737579345703</v>
+        <v>70.336982727050781</v>
       </c>
       <c r="E4" s="5">
-        <v>3414239232</v>
+        <v>8948612096</v>
       </c>
       <c r="F4" s="5">
-        <v>3414239232</v>
+        <v>8948612096</v>
       </c>
       <c r="G4" s="5">
-        <v>63.220001220703125</v>
+        <v>48</v>
       </c>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5">
-        <v>-31.526389379708441</v>
+        <v>-32.027132548412204</v>
       </c>
       <c r="D5" s="5">
-        <v>70.336982727050781</v>
+        <v>47.983291625976562</v>
       </c>
       <c r="E5" s="5">
-        <v>8948612096</v>
+        <v>15437185024</v>
       </c>
       <c r="F5" s="5">
-        <v>8948612096</v>
+        <v>15437185024</v>
       </c>
       <c r="G5" s="5">
-        <v>48</v>
+        <v>27.059999465942383</v>
       </c>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="5">
-        <v>-32.027132548412204</v>
+        <v>-32.186638996914155</v>
       </c>
       <c r="D6" s="5">
-        <v>47.983291625976562</v>
+        <v>62.418323516845703</v>
       </c>
       <c r="E6" s="5">
-        <v>15437185024</v>
+        <v>1552755200</v>
       </c>
       <c r="F6" s="5">
-        <v>15437185024</v>
+        <v>1552755200</v>
       </c>
       <c r="G6" s="5">
-        <v>27.059999465942383</v>
+        <v>17.149999618530273</v>
       </c>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="5">
-        <v>-32.186638996914155</v>
+        <v>-32.327611754661469</v>
       </c>
       <c r="D7" s="5">
-        <v>62.418323516845703</v>
+        <v>26.115772247314453</v>
       </c>
       <c r="E7" s="5">
-        <v>1552755200</v>
+        <v>34556964864</v>
       </c>
       <c r="F7" s="5">
-        <v>1552755200</v>
+        <v>34556964864</v>
       </c>
       <c r="G7" s="5">
-        <v>17.149999618530273</v>
-      </c>
-      <c r="H7" s="5"/>
+        <v>224.74000549316406</v>
+      </c>
+      <c r="H7" s="5">
+        <v>84.172286987304688</v>
+      </c>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="5">
-        <v>-32.327611754661469</v>
+        <v>-33.172255787725156</v>
       </c>
       <c r="D8" s="5">
-        <v>26.115772247314453</v>
+        <v>29.148611068725586</v>
       </c>
       <c r="E8" s="5">
-        <v>34556964864</v>
+        <v>4703943680</v>
       </c>
       <c r="F8" s="5">
-        <v>34556964864</v>
+        <v>4703943680</v>
       </c>
       <c r="G8" s="5">
-        <v>224.74000549316406</v>
-      </c>
-      <c r="H8" s="5">
-        <v>84.172286987304688</v>
-      </c>
+        <v>42.869998931884766</v>
+      </c>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="5">
-        <v>-33.172255787725156</v>
+        <v>-33.747410961765759</v>
       </c>
       <c r="D9" s="5">
-        <v>29.148611068725586</v>
+        <v>55.477916717529297</v>
       </c>
       <c r="E9" s="5">
-        <v>4703943680</v>
+        <v>10986992640</v>
       </c>
       <c r="F9" s="5">
-        <v>4703943680</v>
+        <v>10986992640</v>
       </c>
       <c r="G9" s="5">
-        <v>42.869998931884766</v>
+        <v>16</v>
       </c>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="5">
-        <v>-33.747410961765759</v>
+        <v>-34.737319306143192</v>
       </c>
       <c r="D10" s="5">
-        <v>55.477916717529297</v>
+        <v>44.134113311767578</v>
       </c>
       <c r="E10" s="5">
-        <v>10986992640</v>
+        <v>502572032</v>
       </c>
       <c r="F10" s="5">
-        <v>10986992640</v>
+        <v>502572032</v>
       </c>
       <c r="G10" s="5">
-        <v>16</v>
+        <v>14.409999847412109</v>
       </c>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="5">
-        <v>-34.737319306143192</v>
+        <v>-34.762178082209836</v>
       </c>
       <c r="D11" s="5">
-        <v>44.134113311767578</v>
+        <v>22.667600631713867</v>
       </c>
       <c r="E11" s="5">
-        <v>502572032</v>
+        <v>6761591296</v>
       </c>
       <c r="F11" s="5">
-        <v>502572032</v>
+        <v>6761591296</v>
       </c>
       <c r="G11" s="5">
-        <v>14.409999847412109</v>
-      </c>
-      <c r="H11" s="5"/>
+        <v>143.47999572753906</v>
+      </c>
+      <c r="H11" s="5">
+        <v>35.602973937988281</v>
+      </c>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="5">
-        <v>-34.762178082209836</v>
+        <v>-35.166664918263749</v>
       </c>
       <c r="D12" s="5">
-        <v>22.667600631713867</v>
+        <v>86.356170654296875</v>
       </c>
       <c r="E12" s="5">
-        <v>6761591296</v>
+        <v>523822144</v>
       </c>
       <c r="F12" s="5">
-        <v>6761591296</v>
+        <v>523822144</v>
       </c>
       <c r="G12" s="5">
-        <v>143.47999572753906</v>
-      </c>
-      <c r="H12" s="5">
-        <v>35.602973937988281</v>
-      </c>
+        <v>3.8900001049041748</v>
+      </c>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="5">
-        <v>-35.166664918263749</v>
+        <v>-35.920782115156101</v>
       </c>
       <c r="D13" s="5">
-        <v>86.356170654296875</v>
+        <v>63.490924835205078</v>
       </c>
       <c r="E13" s="5">
-        <v>523822144</v>
+        <v>38735409152</v>
       </c>
       <c r="F13" s="5">
-        <v>523822144</v>
+        <v>38735409152</v>
       </c>
       <c r="G13" s="5">
-        <v>3.8900001049041748</v>
+        <v>168.89999389648438</v>
       </c>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="5">
-        <v>-35.920782115156101</v>
+        <v>-36.403094984806295</v>
       </c>
       <c r="D14" s="5">
-        <v>63.490924835205078</v>
+        <v>22.405750274658203</v>
       </c>
       <c r="E14" s="5">
-        <v>38735409152</v>
+        <v>11912648704</v>
       </c>
       <c r="F14" s="5">
-        <v>38735409152</v>
+        <v>11912648704</v>
       </c>
       <c r="G14" s="5">
-        <v>168.89999389648438</v>
-      </c>
-      <c r="H14" s="5"/>
+        <v>38.130001068115234</v>
+      </c>
+      <c r="H14" s="5">
+        <v>102.10202789306641</v>
+      </c>
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="5">
-        <v>-36.403094984806295</v>
+        <v>-36.601204994848892</v>
       </c>
       <c r="D15" s="5">
-        <v>22.405750274658203</v>
+        <v>337.56787109375</v>
       </c>
       <c r="E15" s="5">
-        <v>11912648704</v>
+        <v>3867926016</v>
       </c>
       <c r="F15" s="5">
-        <v>11912648704</v>
+        <v>3867926016</v>
       </c>
       <c r="G15" s="5">
-        <v>38.130001068115234</v>
+        <v>40.029998779296875</v>
       </c>
       <c r="H15" s="5">
-        <v>102.10202789306641</v>
+        <v>56.473499298095703</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" s="5">
-        <v>-36.601204994848892</v>
+        <v>-37.344202843573136</v>
       </c>
       <c r="D16" s="5">
-        <v>337.56787109375</v>
+        <v>32.470241546630859</v>
       </c>
       <c r="E16" s="5">
-        <v>3867926016</v>
+        <v>11492000768</v>
       </c>
       <c r="F16" s="5">
-        <v>3867926016</v>
+        <v>11492000768</v>
       </c>
       <c r="G16" s="5">
-        <v>40.029998779296875</v>
-      </c>
-      <c r="H16" s="5">
-        <v>56.473499298095703</v>
-      </c>
+        <v>94.510002136230469</v>
+      </c>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" s="5">
-        <v>-37.344202843573136</v>
+        <v>-38.292162979348085</v>
       </c>
       <c r="D17" s="5">
-        <v>32.470241546630859</v>
+        <v>44.175613403320312</v>
       </c>
       <c r="E17" s="5">
-        <v>11492000768</v>
+        <v>2244703232</v>
       </c>
       <c r="F17" s="5">
-        <v>11492000768</v>
+        <v>2244703232</v>
       </c>
       <c r="G17" s="5">
-        <v>94.510002136230469</v>
+        <v>11.489999771118164</v>
       </c>
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" s="5">
-        <v>-38.292162979348085</v>
+        <v>-38.367845075898423</v>
       </c>
       <c r="D18" s="5">
-        <v>44.175613403320312</v>
+        <v>161.93693542480469</v>
       </c>
       <c r="E18" s="5">
-        <v>2244703232</v>
+        <v>1148770304</v>
       </c>
       <c r="F18" s="5">
-        <v>2244703232</v>
+        <v>1148770304</v>
       </c>
       <c r="G18" s="5">
-        <v>11.489999771118164</v>
-      </c>
-      <c r="H18" s="5"/>
+        <v>5.059999942779541</v>
+      </c>
+      <c r="H18" s="5">
+        <v>126.50000762939453</v>
+      </c>
     </row>
     <row r="19" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" s="5">
-        <v>-38.367845075898423</v>
+        <v>-38.778620685755484</v>
       </c>
       <c r="D19" s="5">
-        <v>161.93693542480469</v>
+        <v>37.617149353027344</v>
       </c>
       <c r="E19" s="5">
-        <v>1148770304</v>
+        <v>8206703616</v>
       </c>
       <c r="F19" s="5">
-        <v>1148770304</v>
+        <v>8206703616</v>
       </c>
       <c r="G19" s="5">
-        <v>5.059999942779541</v>
-      </c>
-      <c r="H19" s="5">
-        <v>126.50000762939453</v>
-      </c>
+        <v>120.59999847412109</v>
+      </c>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" s="5">
-        <v>-38.778620685755484</v>
+        <v>-38.978340914906553</v>
       </c>
       <c r="D20" s="5">
-        <v>37.617149353027344</v>
+        <v>36.560020446777344</v>
       </c>
       <c r="E20" s="5">
-        <v>8206703616</v>
+        <v>14983630848</v>
       </c>
       <c r="F20" s="5">
-        <v>8206703616</v>
+        <v>14983630848</v>
       </c>
       <c r="G20" s="5">
-        <v>120.59999847412109</v>
+        <v>162.58000183105469</v>
       </c>
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" s="5">
-        <v>-38.978340914906553</v>
+        <v>-39.360850566667125</v>
       </c>
       <c r="D21" s="5">
-        <v>36.560020446777344</v>
+        <v>29.54039192199707</v>
       </c>
       <c r="E21" s="5">
-        <v>14983630848</v>
+        <v>7986363392</v>
       </c>
       <c r="F21" s="5">
-        <v>14983630848</v>
+        <v>7986363392</v>
       </c>
       <c r="G21" s="5">
-        <v>162.58000183105469</v>
+        <v>60.529998779296875</v>
       </c>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" s="5">
-        <v>-39.360850566667125</v>
+        <v>-40.30895605479251</v>
       </c>
       <c r="D22" s="5">
-        <v>29.54039192199707</v>
+        <v>41.670642852783203</v>
       </c>
       <c r="E22" s="5">
-        <v>7986363392</v>
+        <v>8967111680</v>
       </c>
       <c r="F22" s="5">
-        <v>7986363392</v>
+        <v>8967111680</v>
       </c>
       <c r="G22" s="5">
-        <v>60.529998779296875</v>
+        <v>103.16999816894531</v>
       </c>
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23" s="5">
-        <v>-40.30895605479251</v>
+        <v>-41.518218654745183</v>
       </c>
       <c r="D23" s="5">
-        <v>41.670642852783203</v>
+        <v>42.159095764160156</v>
       </c>
       <c r="E23" s="5">
-        <v>8967111680</v>
+        <v>8026844672</v>
       </c>
       <c r="F23" s="5">
-        <v>8967111680</v>
+        <v>8026844672</v>
       </c>
       <c r="G23" s="5">
-        <v>103.16999816894531</v>
+        <v>86.669998168945312</v>
       </c>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" s="5">
-        <v>-41.518218654745183</v>
+        <v>-41.774099916493498</v>
       </c>
       <c r="D24" s="5">
-        <v>42.159095764160156</v>
+        <v>29.177658081054688</v>
       </c>
       <c r="E24" s="5">
-        <v>8026844672</v>
+        <v>1156963584</v>
       </c>
       <c r="F24" s="5">
-        <v>8026844672</v>
+        <v>1156963584</v>
       </c>
       <c r="G24" s="5">
-        <v>86.669998168945312</v>
+        <v>18.969999313354492</v>
       </c>
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" s="5">
-        <v>-41.774099916493498</v>
+        <v>-42.746409731048153</v>
       </c>
       <c r="D25" s="5">
-        <v>29.177658081054688</v>
+        <v>22.091634750366211</v>
       </c>
       <c r="E25" s="5">
-        <v>1156963584</v>
+        <v>3399351040</v>
       </c>
       <c r="F25" s="5">
-        <v>1156963584</v>
+        <v>3399351040</v>
       </c>
       <c r="G25" s="5">
-        <v>18.969999313354492</v>
+        <v>59.830001831054688</v>
       </c>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C26" s="5">
-        <v>-42.746409731048153</v>
+        <v>-43.302064266556449</v>
       </c>
       <c r="D26" s="5">
-        <v>22.091634750366211</v>
+        <v>23.794622421264648</v>
       </c>
       <c r="E26" s="5">
-        <v>3399351040</v>
+        <v>4195569152</v>
       </c>
       <c r="F26" s="5">
-        <v>3399351040</v>
+        <v>4195569152</v>
       </c>
       <c r="G26" s="5">
-        <v>59.830001831054688</v>
+        <v>30.219999313354492</v>
       </c>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27" s="5">
-        <v>-43.302064266556449</v>
+        <v>-43.316580497608015</v>
       </c>
       <c r="D27" s="5">
-        <v>23.794622421264648</v>
+        <v>39.749103546142578</v>
       </c>
       <c r="E27" s="5">
-        <v>4195569152</v>
+        <v>9266352128</v>
       </c>
       <c r="F27" s="5">
-        <v>4195569152</v>
+        <v>9266352128</v>
       </c>
       <c r="G27" s="5">
-        <v>30.219999313354492</v>
+        <v>124.08000183105469</v>
       </c>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28" s="5">
-        <v>-43.316580497608015</v>
+        <v>-43.645833429914937</v>
       </c>
       <c r="D28" s="5">
-        <v>39.749103546142578</v>
+        <v>30.869722366333008</v>
       </c>
       <c r="E28" s="5">
-        <v>9266352128</v>
+        <v>1341443456</v>
       </c>
       <c r="F28" s="5">
-        <v>9266352128</v>
+        <v>1341443456</v>
       </c>
       <c r="G28" s="5">
-        <v>124.08000183105469</v>
+        <v>16.229999542236328</v>
       </c>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C29" s="5">
-        <v>-43.645833429914937</v>
+        <v>-43.66134601494749</v>
       </c>
       <c r="D29" s="5">
-        <v>30.869722366333008</v>
+        <v>35.519031524658203</v>
       </c>
       <c r="E29" s="5">
-        <v>1341443456</v>
+        <v>25481273344</v>
       </c>
       <c r="F29" s="5">
-        <v>1341443456</v>
+        <v>25481273344</v>
       </c>
       <c r="G29" s="5">
-        <v>16.229999542236328</v>
+        <v>12.710000038146973</v>
       </c>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C30" s="5">
-        <v>-43.66134601494749</v>
+        <v>-44.021163294982166</v>
       </c>
       <c r="D30" s="5">
-        <v>35.519031524658203</v>
+        <v>31.893867492675781</v>
       </c>
       <c r="E30" s="5">
-        <v>25481273344</v>
+        <v>2703210240</v>
       </c>
       <c r="F30" s="5">
-        <v>25481273344</v>
+        <v>2703210240</v>
       </c>
       <c r="G30" s="5">
-        <v>12.710000038146973</v>
+        <v>10.579999923706055</v>
       </c>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C31" s="5">
-        <v>-44.021163294982166</v>
+        <v>-45.566558072994589</v>
       </c>
       <c r="D31" s="5">
-        <v>31.893867492675781</v>
+        <v>38.103687286376953</v>
       </c>
       <c r="E31" s="5">
-        <v>2703210240</v>
+        <v>2384708096</v>
       </c>
       <c r="F31" s="5">
-        <v>2703210240</v>
+        <v>2384708096</v>
       </c>
       <c r="G31" s="5">
-        <v>10.579999923706055</v>
+        <v>24.739999771118164</v>
       </c>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C32" s="5">
-        <v>-45.566558072994589</v>
+        <v>-45.587550063077572</v>
       </c>
       <c r="D32" s="5">
-        <v>38.103687286376953</v>
+        <v>41.958538055419922</v>
       </c>
       <c r="E32" s="5">
-        <v>2384708096</v>
+        <v>939191296</v>
       </c>
       <c r="F32" s="5">
-        <v>2384708096</v>
+        <v>939191296</v>
       </c>
       <c r="G32" s="5">
-        <v>24.739999771118164</v>
+        <v>34.959999084472656</v>
       </c>
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C33" s="5">
-        <v>-45.587550063077572</v>
+        <v>-45.825958988045521</v>
       </c>
       <c r="D33" s="5">
-        <v>41.958538055419922</v>
+        <v>30.75139045715332</v>
       </c>
       <c r="E33" s="5">
-        <v>939191296</v>
+        <v>3614663168</v>
       </c>
       <c r="F33" s="5">
-        <v>939191296</v>
+        <v>3614663168</v>
       </c>
       <c r="G33" s="5">
-        <v>34.959999084472656</v>
+        <v>33.680000305175781</v>
       </c>
       <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C34" s="5">
-        <v>-45.825958988045521</v>
+        <v>-45.87524807286303</v>
       </c>
       <c r="D34" s="5">
-        <v>30.75139045715332</v>
+        <v>29.272449493408203</v>
       </c>
       <c r="E34" s="5">
-        <v>3614663168</v>
+        <v>1006967808</v>
       </c>
       <c r="F34" s="5">
-        <v>3614663168</v>
+        <v>1006967808</v>
       </c>
       <c r="G34" s="5">
-        <v>33.680000305175781</v>
+        <v>5.380000114440918</v>
       </c>
       <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C35" s="5">
-        <v>-45.87524807286303</v>
+        <v>-46.120885639523159</v>
       </c>
       <c r="D35" s="5">
-        <v>29.272449493408203</v>
+        <v>24.640953063964844</v>
       </c>
       <c r="E35" s="5">
-        <v>1006967808</v>
+        <v>3155791104</v>
       </c>
       <c r="F35" s="5">
-        <v>1006967808</v>
+        <v>3155791104</v>
       </c>
       <c r="G35" s="5">
-        <v>5.380000114440918</v>
+        <v>23.889999389648438</v>
       </c>
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C36" s="5">
-        <v>-46.120885639523159</v>
+        <v>-46.817540322920593</v>
       </c>
       <c r="D36" s="5">
-        <v>24.640953063964844</v>
+        <v>708.15008544921875</v>
       </c>
       <c r="E36" s="5">
-        <v>3155791104</v>
+        <v>671989824</v>
       </c>
       <c r="F36" s="5">
-        <v>3155791104</v>
+        <v>671989824</v>
       </c>
       <c r="G36" s="5">
-        <v>23.889999389648438</v>
-      </c>
-      <c r="H36" s="5"/>
+        <v>3.7599999904632568</v>
+      </c>
+      <c r="H36" s="5">
+        <v>99.951889038085938</v>
+      </c>
     </row>
     <row r="37" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C37" s="5">
-        <v>-46.817540322920593</v>
+        <v>-46.871180850822071</v>
       </c>
       <c r="D37" s="5">
-        <v>708.15008544921875</v>
+        <v>75.884544372558594</v>
       </c>
       <c r="E37" s="5">
-        <v>671989824</v>
+        <v>3964280832</v>
       </c>
       <c r="F37" s="5">
-        <v>671989824</v>
+        <v>3964280832</v>
       </c>
       <c r="G37" s="5">
-        <v>3.7599999904632568</v>
-      </c>
-      <c r="H37" s="5">
-        <v>99.951889038085938</v>
-      </c>
+        <v>47.799999237060547</v>
+      </c>
+      <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C38" s="5">
-        <v>-46.871180850822071</v>
+        <v>-46.98699718180626</v>
       </c>
       <c r="D38" s="5">
-        <v>75.884544372558594</v>
+        <v>49.920223236083984</v>
       </c>
       <c r="E38" s="5">
-        <v>3964280832</v>
+        <v>17558378496</v>
       </c>
       <c r="F38" s="5">
-        <v>3964280832</v>
+        <v>17558378496</v>
       </c>
       <c r="G38" s="5">
-        <v>47.799999237060547</v>
+        <v>33.430000305175781</v>
       </c>
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C39" s="5">
-        <v>-46.98699718180626</v>
+        <v>-48.275863769930361</v>
       </c>
       <c r="D39" s="5">
-        <v>49.920223236083984</v>
+        <v>21.733591079711914</v>
       </c>
       <c r="E39" s="5">
-        <v>17558378496</v>
+        <v>792118912</v>
       </c>
       <c r="F39" s="5">
-        <v>17558378496</v>
+        <v>792118912</v>
       </c>
       <c r="G39" s="5">
-        <v>33.430000305175781</v>
-      </c>
-      <c r="H39" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="H39" s="5">
+        <v>66.7423095703125</v>
+      </c>
     </row>
     <row r="40" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C40" s="5">
-        <v>-48.275863769930361</v>
+        <v>-49.211525488982389</v>
       </c>
       <c r="D40" s="5">
-        <v>21.733591079711914</v>
+        <v>191.85382080078125</v>
       </c>
       <c r="E40" s="5">
-        <v>792118912</v>
+        <v>915918784</v>
       </c>
       <c r="F40" s="5">
-        <v>792118912</v>
+        <v>915918784</v>
       </c>
       <c r="G40" s="5">
-        <v>6</v>
-      </c>
-      <c r="H40" s="5">
-        <v>66.7423095703125</v>
-      </c>
+        <v>9.3400001525878906</v>
+      </c>
+      <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C41" s="5">
-        <v>-49.211525488982389</v>
+        <v>-50.157692488818874</v>
       </c>
       <c r="D41" s="5">
-        <v>191.85382080078125</v>
+        <v>21.317922592163086</v>
       </c>
       <c r="E41" s="5">
-        <v>915918784</v>
+        <v>1442999168</v>
       </c>
       <c r="F41" s="5">
-        <v>915918784</v>
+        <v>1442999168</v>
       </c>
       <c r="G41" s="5">
-        <v>9.3400001525878906</v>
+        <v>44.25</v>
       </c>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C42" s="5">
-        <v>-50.157692488818874</v>
+        <v>-50.24826217236977</v>
       </c>
       <c r="D42" s="5">
-        <v>21.317922592163086</v>
+        <v>22.788017272949219</v>
       </c>
       <c r="E42" s="5">
-        <v>1442999168</v>
+        <v>3186359808</v>
       </c>
       <c r="F42" s="5">
-        <v>1442999168</v>
+        <v>3186359808</v>
       </c>
       <c r="G42" s="5">
-        <v>44.25</v>
+        <v>25.049999237060547</v>
       </c>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C43" s="5">
-        <v>-50.24826217236977</v>
+        <v>-50.298036594609641</v>
       </c>
       <c r="D43" s="5">
-        <v>22.788017272949219</v>
+        <v>30.823673248291016</v>
       </c>
       <c r="E43" s="5">
-        <v>3186359808</v>
+        <v>1475767552</v>
       </c>
       <c r="F43" s="5">
-        <v>3186359808</v>
+        <v>1475767552</v>
       </c>
       <c r="G43" s="5">
-        <v>25.049999237060547</v>
+        <v>28.350000381469727</v>
       </c>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C44" s="5">
-        <v>-50.298036594609641</v>
+        <v>-51.991868957397514</v>
       </c>
       <c r="D44" s="5">
-        <v>30.823673248291016</v>
+        <v>26.089950561523438</v>
       </c>
       <c r="E44" s="5">
-        <v>1475767552</v>
+        <v>2624137472</v>
       </c>
       <c r="F44" s="5">
-        <v>1475767552</v>
+        <v>2624137472</v>
       </c>
       <c r="G44" s="5">
-        <v>28.350000381469727</v>
-      </c>
-      <c r="H44" s="5"/>
+        <v>47.240001678466797</v>
+      </c>
+      <c r="H44" s="5">
+        <v>18.247076034545898</v>
+      </c>
     </row>
     <row r="45" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C45" s="5">
-        <v>-51.991868957397514</v>
+        <v>-52.225889409254044</v>
       </c>
       <c r="D45" s="5">
-        <v>26.089950561523438</v>
+        <v>65.229286193847656</v>
       </c>
       <c r="E45" s="5">
-        <v>2624137472</v>
+        <v>33566828544</v>
       </c>
       <c r="F45" s="5">
-        <v>2624137472</v>
+        <v>33566828544</v>
       </c>
       <c r="G45" s="5">
-        <v>47.240001678466797</v>
-      </c>
-      <c r="H45" s="5">
-        <v>18.247076034545898</v>
-      </c>
+        <v>188.22999572753906</v>
+      </c>
+      <c r="H45" s="5"/>
     </row>
     <row r="46" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C46" s="5">
-        <v>-52.225889409254044</v>
+        <v>-53.335833332618435</v>
       </c>
       <c r="D46" s="5">
-        <v>65.229286193847656</v>
+        <v>28.765352249145508</v>
       </c>
       <c r="E46" s="5">
-        <v>33566828544</v>
+        <v>2824940544</v>
       </c>
       <c r="F46" s="5">
-        <v>33566828544</v>
+        <v>2824940544</v>
       </c>
       <c r="G46" s="5">
-        <v>188.22999572753906</v>
+        <v>12.449999809265137</v>
       </c>
       <c r="H46" s="5"/>
     </row>
     <row r="47" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C47" s="5">
-        <v>-53.335833332618435</v>
+        <v>-53.679058567534263</v>
       </c>
       <c r="D47" s="5">
-        <v>28.765352249145508</v>
+        <v>41.027366638183594</v>
       </c>
       <c r="E47" s="5">
-        <v>2824940544</v>
+        <v>2014779776</v>
       </c>
       <c r="F47" s="5">
-        <v>2824940544</v>
+        <v>2014779776</v>
       </c>
       <c r="G47" s="5">
-        <v>12.449999809265137</v>
+        <v>60.560001373291016</v>
       </c>
       <c r="H47" s="5"/>
     </row>
     <row r="48" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C48" s="5">
-        <v>-53.679058567534263</v>
+        <v>-54.085603834785012</v>
       </c>
       <c r="D48" s="5">
-        <v>41.027366638183594</v>
+        <v>37.386405944824219</v>
       </c>
       <c r="E48" s="5">
-        <v>2014779776</v>
+        <v>1248173568</v>
       </c>
       <c r="F48" s="5">
-        <v>2014779776</v>
+        <v>1248173568</v>
       </c>
       <c r="G48" s="5">
-        <v>60.560001373291016</v>
+        <v>14.159999847412109</v>
       </c>
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C49" s="5">
-        <v>-54.085603834785012</v>
+        <v>-54.198476310168708</v>
       </c>
       <c r="D49" s="5">
-        <v>37.386405944824219</v>
+        <v>97.876487731933594</v>
       </c>
       <c r="E49" s="5">
-        <v>1248173568</v>
+        <v>2195712000</v>
       </c>
       <c r="F49" s="5">
-        <v>1248173568</v>
+        <v>2195712000</v>
       </c>
       <c r="G49" s="5">
-        <v>14.159999847412109</v>
-      </c>
-      <c r="H49" s="5"/>
+        <v>17.399999618530273</v>
+      </c>
+      <c r="H49" s="5">
+        <v>15.751266479492188</v>
+      </c>
     </row>
     <row r="50" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C50" s="5">
-        <v>-54.198476310168708</v>
+        <v>-54.939824831405438</v>
       </c>
       <c r="D50" s="5">
-        <v>97.876487731933594</v>
+        <v>35.943862915039062</v>
       </c>
       <c r="E50" s="5">
-        <v>2195712000</v>
+        <v>2442460672</v>
       </c>
       <c r="F50" s="5">
-        <v>2195712000</v>
+        <v>2442460672</v>
       </c>
       <c r="G50" s="5">
-        <v>17.399999618530273</v>
-      </c>
-      <c r="H50" s="5">
-        <v>15.751266479492188</v>
-      </c>
+        <v>16.100000381469727</v>
+      </c>
+      <c r="H50" s="5"/>
     </row>
     <row r="51" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C51" s="5">
-        <v>-54.939824831405438</v>
+        <v>-55.400484776741834</v>
       </c>
       <c r="D51" s="5">
-        <v>35.943862915039062</v>
+        <v>2532.33154296875</v>
       </c>
       <c r="E51" s="5">
-        <v>2442460672</v>
+        <v>1713776000</v>
       </c>
       <c r="F51" s="5">
-        <v>2442460672</v>
+        <v>1713776000</v>
       </c>
       <c r="G51" s="5">
-        <v>16.100000381469727</v>
+        <v>14.699999809265137</v>
       </c>
       <c r="H51" s="5"/>
     </row>
     <row r="52" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C52" s="5">
-        <v>-55.400484776741834</v>
+        <v>-55.806024779128386</v>
       </c>
       <c r="D52" s="5">
-        <v>2532.33154296875</v>
+        <v>40.932731628417969</v>
       </c>
       <c r="E52" s="5">
-        <v>1713776000</v>
+        <v>2450520832</v>
       </c>
       <c r="F52" s="5">
-        <v>1713776000</v>
+        <v>2450520832</v>
       </c>
       <c r="G52" s="5">
-        <v>14.699999809265137</v>
+        <v>23.329999923706055</v>
       </c>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C53" s="5">
-        <v>-55.806024779128386</v>
+        <v>-56.150100114748689</v>
       </c>
       <c r="D53" s="5">
-        <v>40.932731628417969</v>
+        <v>54.130584716796875</v>
       </c>
       <c r="E53" s="5">
-        <v>2450520832</v>
+        <v>1447962880</v>
       </c>
       <c r="F53" s="5">
-        <v>2450520832</v>
+        <v>1447962880</v>
       </c>
       <c r="G53" s="5">
-        <v>23.329999923706055</v>
+        <v>57.610000610351562</v>
       </c>
       <c r="H53" s="5"/>
     </row>
     <row r="54" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C54" s="5">
-        <v>-56.150100114748689</v>
+        <v>-56.791000420681179</v>
       </c>
       <c r="D54" s="5">
-        <v>54.130584716796875</v>
+        <v>49.200954437255859</v>
       </c>
       <c r="E54" s="5">
-        <v>1447962880</v>
+        <v>2173628672</v>
       </c>
       <c r="F54" s="5">
-        <v>1447962880</v>
+        <v>2173628672</v>
       </c>
       <c r="G54" s="5">
-        <v>57.610000610351562</v>
+        <v>30.350000381469727</v>
       </c>
       <c r="H54" s="5"/>
     </row>
     <row r="55" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C55" s="5">
-        <v>-56.791000420681179</v>
+        <v>-57.317967787143274</v>
       </c>
       <c r="D55" s="5">
-        <v>49.200954437255859</v>
+        <v>26.726654052734375</v>
       </c>
       <c r="E55" s="5">
-        <v>2173628672</v>
+        <v>50915602432</v>
       </c>
       <c r="F55" s="5">
-        <v>2173628672</v>
+        <v>50915602432</v>
       </c>
       <c r="G55" s="5">
-        <v>30.350000381469727</v>
-      </c>
-      <c r="H55" s="5"/>
+        <v>110.37999725341797</v>
+      </c>
+      <c r="H55" s="5">
+        <v>149.46371459960938</v>
+      </c>
     </row>
     <row r="56" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C56" s="5">
-        <v>-57.317967787143274</v>
+        <v>-57.746478305688754</v>
       </c>
       <c r="D56" s="5">
-        <v>26.726654052734375</v>
+        <v>31.634178161621094</v>
       </c>
       <c r="E56" s="5">
-        <v>50915602432</v>
+        <v>1017103232</v>
       </c>
       <c r="F56" s="5">
-        <v>50915602432</v>
+        <v>1017103232</v>
       </c>
       <c r="G56" s="5">
-        <v>110.37999725341797</v>
-      </c>
-      <c r="H56" s="5">
-        <v>149.46371459960938</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H56" s="5"/>
     </row>
     <row r="57" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C57" s="5">
-        <v>-57.746478305688754</v>
+        <v>-57.752807285129123</v>
       </c>
       <c r="D57" s="5">
-        <v>31.634178161621094</v>
+        <v>221.29713439941406</v>
       </c>
       <c r="E57" s="5">
-        <v>1017103232</v>
+        <v>1728895872</v>
       </c>
       <c r="F57" s="5">
-        <v>1017103232</v>
+        <v>1728895872</v>
       </c>
       <c r="G57" s="5">
-        <v>3</v>
+        <v>7.5199999809265137</v>
       </c>
       <c r="H57" s="5"/>
     </row>
     <row r="58" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C58" s="5">
-        <v>-57.752807285129123</v>
+        <v>-57.978555048934233</v>
       </c>
       <c r="D58" s="5">
-        <v>221.29713439941406</v>
+        <v>24.812244415283203</v>
       </c>
       <c r="E58" s="5">
-        <v>1728895872</v>
+        <v>1885837568</v>
       </c>
       <c r="F58" s="5">
-        <v>1728895872</v>
+        <v>1885837568</v>
       </c>
       <c r="G58" s="5">
-        <v>7.5199999809265137</v>
+        <v>26.649999618530273</v>
       </c>
       <c r="H58" s="5"/>
     </row>
     <row r="59" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C59" s="5">
-        <v>-57.978555048934233</v>
+        <v>-58.889851967910666</v>
       </c>
       <c r="D59" s="5">
-        <v>24.812244415283203</v>
+        <v>45.369697570800781</v>
       </c>
       <c r="E59" s="5">
-        <v>1885837568</v>
+        <v>1457261696</v>
       </c>
       <c r="F59" s="5">
-        <v>1885837568</v>
+        <v>1457261696</v>
       </c>
       <c r="G59" s="5">
-        <v>26.649999618530273</v>
+        <v>28.440000534057617</v>
       </c>
       <c r="H59" s="5"/>
     </row>
     <row r="60" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C60" s="5">
-        <v>-58.889851967910666</v>
+        <v>-59.179104881261132</v>
       </c>
       <c r="D60" s="5">
-        <v>45.369697570800781</v>
+        <v>110.80899047851562</v>
       </c>
       <c r="E60" s="5">
-        <v>1457261696</v>
+        <v>787297792</v>
       </c>
       <c r="F60" s="5">
-        <v>1457261696</v>
+        <v>787297792</v>
       </c>
       <c r="G60" s="5">
-        <v>28.440000534057617</v>
-      </c>
-      <c r="H60" s="5"/>
+        <v>5.4699997901916504</v>
+      </c>
+      <c r="H60" s="5">
+        <v>12.431818008422852</v>
+      </c>
     </row>
     <row r="61" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C61" s="5">
-        <v>-59.179104881261132</v>
+        <v>-59.978654794014993</v>
       </c>
       <c r="D61" s="5">
-        <v>110.80899047851562</v>
+        <v>906.648193359375</v>
       </c>
       <c r="E61" s="5">
-        <v>787297792</v>
+        <v>1158280704</v>
       </c>
       <c r="F61" s="5">
-        <v>787297792</v>
+        <v>1158280704</v>
       </c>
       <c r="G61" s="5">
-        <v>5.4699997901916504</v>
-      </c>
-      <c r="H61" s="5">
-        <v>12.431818008422852</v>
-      </c>
+        <v>3.75</v>
+      </c>
+      <c r="H61" s="5"/>
     </row>
     <row r="62" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C62" s="5">
-        <v>-59.978654794014993</v>
+        <v>-60.692913694845593</v>
       </c>
       <c r="D62" s="5">
-        <v>906.648193359375</v>
+        <v>26.208591461181641</v>
       </c>
       <c r="E62" s="5">
-        <v>1158280704</v>
+        <v>6771902976</v>
       </c>
       <c r="F62" s="5">
-        <v>1158280704</v>
+        <v>6771902976</v>
       </c>
       <c r="G62" s="5">
-        <v>3.75</v>
+        <v>118.90000152587891</v>
       </c>
       <c r="H62" s="5"/>
     </row>
     <row r="63" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C63" s="5">
-        <v>-60.692913694845593</v>
+        <v>-61.078783902272384</v>
       </c>
       <c r="D63" s="5">
-        <v>26.208591461181641</v>
+        <v>35.198326110839844</v>
       </c>
       <c r="E63" s="5">
-        <v>6771902976</v>
+        <v>42854596608</v>
       </c>
       <c r="F63" s="5">
-        <v>6771902976</v>
+        <v>42854596608</v>
       </c>
       <c r="G63" s="5">
-        <v>118.90000152587891</v>
-      </c>
-      <c r="H63" s="5"/>
+        <v>143.80999755859375</v>
+      </c>
+      <c r="H63" s="5">
+        <v>41.014591217041016</v>
+      </c>
     </row>
     <row r="64" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C64" s="5">
-        <v>-61.078783902272384</v>
+        <v>-61.52155432803562</v>
       </c>
       <c r="D64" s="5">
-        <v>35.198326110839844</v>
+        <v>42.447177886962891</v>
       </c>
       <c r="E64" s="5">
-        <v>42854596608</v>
+        <v>23208937472</v>
       </c>
       <c r="F64" s="5">
-        <v>42854596608</v>
+        <v>23208937472</v>
       </c>
       <c r="G64" s="5">
-        <v>143.80999755859375</v>
-      </c>
-      <c r="H64" s="5">
-        <v>41.014591217041016</v>
-      </c>
+        <v>117.29000091552734</v>
+      </c>
+      <c r="H64" s="5"/>
     </row>
     <row r="65" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C65" s="5">
-        <v>-61.52155432803562</v>
+        <v>-61.999277947029263</v>
       </c>
       <c r="D65" s="5">
-        <v>42.447177886962891</v>
+        <v>47.693927764892578</v>
       </c>
       <c r="E65" s="5">
-        <v>23208937472</v>
+        <v>702932544</v>
       </c>
       <c r="F65" s="5">
-        <v>23208937472</v>
+        <v>702932544</v>
       </c>
       <c r="G65" s="5">
-        <v>117.29000091552734</v>
+        <v>10.529999732971191</v>
       </c>
       <c r="H65" s="5"/>
     </row>
     <row r="66" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C66" s="5">
-        <v>-61.999277947029263</v>
+        <v>-62.02001719841833</v>
       </c>
       <c r="D66" s="5">
-        <v>47.693927764892578</v>
+        <v>55.812915802001953</v>
       </c>
       <c r="E66" s="5">
-        <v>702932544</v>
+        <v>6870178816</v>
       </c>
       <c r="F66" s="5">
-        <v>702932544</v>
+        <v>6870178816</v>
       </c>
       <c r="G66" s="5">
-        <v>10.529999732971191</v>
-      </c>
-      <c r="H66" s="5"/>
+        <v>20.870000839233398</v>
+      </c>
+      <c r="H66" s="5">
+        <v>7.8146052360534668</v>
+      </c>
     </row>
     <row r="67" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C67" s="5">
-        <v>-62.02001719841833</v>
+        <v>-63.157895837574209</v>
       </c>
       <c r="D67" s="5">
-        <v>55.812915802001953</v>
+        <v>48.851642608642578</v>
       </c>
       <c r="E67" s="5">
-        <v>6870178816</v>
+        <v>1924158848</v>
       </c>
       <c r="F67" s="5">
-        <v>6870178816</v>
+        <v>1924158848</v>
       </c>
       <c r="G67" s="5">
-        <v>20.870000839233398</v>
-      </c>
-      <c r="H67" s="5">
-        <v>7.8146052360534668</v>
-      </c>
+        <v>10.079999923706055</v>
+      </c>
+      <c r="H67" s="5"/>
     </row>
     <row r="68" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C68" s="5">
-        <v>-63.157895837574209</v>
+        <v>-66.966799469076591</v>
       </c>
       <c r="D68" s="5">
-        <v>48.851642608642578</v>
+        <v>35.772426605224609</v>
       </c>
       <c r="E68" s="5">
-        <v>1924158848</v>
+        <v>1849756416</v>
       </c>
       <c r="F68" s="5">
-        <v>1924158848</v>
+        <v>1849756416</v>
       </c>
       <c r="G68" s="5">
-        <v>10.079999923706055</v>
+        <v>46.959999084472656</v>
       </c>
       <c r="H68" s="5"/>
     </row>
     <row r="69" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C69" s="5">
-        <v>-66.966799469076591</v>
+        <v>-70.615963321361747</v>
       </c>
       <c r="D69" s="5">
-        <v>35.772426605224609</v>
+        <v>46.004474639892578</v>
       </c>
       <c r="E69" s="5">
-        <v>1849756416</v>
+        <v>1083390592</v>
       </c>
       <c r="F69" s="5">
-        <v>1849756416</v>
+        <v>1083390592</v>
       </c>
       <c r="G69" s="5">
-        <v>46.959999084472656</v>
+        <v>9.3500003814697266</v>
       </c>
       <c r="H69" s="5"/>
     </row>
     <row r="70" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C70" s="5">
-        <v>-70.615963321361747</v>
+        <v>-74.031007387246149</v>
       </c>
       <c r="D70" s="5">
-        <v>46.004474639892578</v>
+        <v>39.621410369873047</v>
       </c>
       <c r="E70" s="5">
-        <v>1083390592</v>
+        <v>1781101440</v>
       </c>
       <c r="F70" s="5">
-        <v>1083390592</v>
+        <v>1781101440</v>
       </c>
       <c r="G70" s="5">
-        <v>9.3500003814697266</v>
+        <v>7.369999885559082</v>
       </c>
       <c r="H70" s="5"/>
     </row>
     <row r="71" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C71" s="5">
-        <v>-74.031007387246149</v>
+        <v>-74.321247489526286</v>
       </c>
       <c r="D71" s="5">
-        <v>39.621410369873047</v>
+        <v>57.304935455322266</v>
       </c>
       <c r="E71" s="5">
-        <v>1781101440</v>
+        <v>4528934400</v>
       </c>
       <c r="F71" s="5">
-        <v>1781101440</v>
+        <v>4528934400</v>
       </c>
       <c r="G71" s="5">
-        <v>7.369999885559082</v>
-      </c>
-      <c r="H71" s="5"/>
+        <v>14.659999847412109</v>
+      </c>
+      <c r="H71" s="5">
+        <v>19.150571823120117</v>
+      </c>
     </row>
     <row r="72" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C72" s="5">
-        <v>-74.321247489526286</v>
+        <v>-75.150299270276662</v>
       </c>
       <c r="D72" s="5">
-        <v>57.304935455322266</v>
+        <v>44.851047515869141</v>
       </c>
       <c r="E72" s="5">
-        <v>4528934400</v>
+        <v>2783782912</v>
       </c>
       <c r="F72" s="5">
-        <v>4528934400</v>
+        <v>2783782912</v>
       </c>
       <c r="G72" s="5">
-        <v>14.659999847412109</v>
-      </c>
-      <c r="H72" s="5">
-        <v>19.150571823120117</v>
-      </c>
+        <v>4.9600000381469727</v>
+      </c>
+      <c r="H72" s="5"/>
     </row>
     <row r="73" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C73" s="5">
-        <v>-75.150299270276662</v>
+        <v>-78.05178733979065</v>
       </c>
       <c r="D73" s="5">
-        <v>44.851047515869141</v>
+        <v>20.776519775390625</v>
       </c>
       <c r="E73" s="5">
-        <v>2783782912</v>
+        <v>694188544</v>
       </c>
       <c r="F73" s="5">
-        <v>2783782912</v>
+        <v>694188544</v>
       </c>
       <c r="G73" s="5">
-        <v>4.9600000381469727</v>
+        <v>1.779999971389771</v>
       </c>
       <c r="H73" s="5"/>
     </row>
-    <row r="74" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A74" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C74" s="5">
-        <v>-78.05178733979065</v>
-      </c>
-      <c r="D74" s="5">
-        <v>20.776519775390625</v>
-      </c>
-      <c r="E74" s="5">
-        <v>694188544</v>
-      </c>
-      <c r="F74" s="5">
-        <v>694188544</v>
-      </c>
-      <c r="G74" s="5">
-        <v>1.779999971389771</v>
-      </c>
-      <c r="H74" s="5"/>
+    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
